--- a/data/survey_data.xlsx
+++ b/data/survey_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lazyl\OneDrive\Documents\Grad School\Classes\Fall 2024\Tools for Comp Bio\tfcb-homework01\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF85B688-A197-41F7-BC32-DA77B6B9C337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3C1464-FE0B-467E-8950-1E5017A4D4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="481" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="481" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey_data" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="19">
   <si>
     <t>NA</t>
   </si>
@@ -54,21 +54,6 @@
     <t>OX</t>
   </si>
   <si>
-    <t>33g</t>
-  </si>
-  <si>
-    <t>40g</t>
-  </si>
-  <si>
-    <t>48g</t>
-  </si>
-  <si>
-    <t>29g</t>
-  </si>
-  <si>
-    <t>37g</t>
-  </si>
-  <si>
     <t>date_collected</t>
   </si>
   <si>
@@ -78,9 +63,6 @@
     <t>sex</t>
   </si>
   <si>
-    <t>weight</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -90,73 +72,19 @@
     <t>DO</t>
   </si>
   <si>
-    <t>52g</t>
-  </si>
-  <si>
-    <t>50g</t>
-  </si>
-  <si>
-    <t>45g</t>
-  </si>
-  <si>
-    <t>41g</t>
-  </si>
-  <si>
-    <t>117g</t>
-  </si>
-  <si>
-    <t>126g</t>
-  </si>
-  <si>
-    <t>132g (scale not calibrated)</t>
-  </si>
-  <si>
-    <t>113g (scale not calibrated)</t>
-  </si>
-  <si>
-    <t>122g</t>
-  </si>
-  <si>
-    <t>107g</t>
-  </si>
-  <si>
-    <t>115g</t>
-  </si>
-  <si>
     <t>OL</t>
   </si>
   <si>
-    <t>36g</t>
-  </si>
-  <si>
-    <t>51g</t>
-  </si>
-  <si>
-    <t>44g</t>
-  </si>
-  <si>
-    <t>146g</t>
-  </si>
-  <si>
-    <t>7g</t>
-  </si>
-  <si>
-    <t>157g (scale not calibrated)</t>
-  </si>
-  <si>
-    <t>218g (scale not calibrated)</t>
-  </si>
-  <si>
-    <t>8g</t>
-  </si>
-  <si>
-    <t>182g</t>
-  </si>
-  <si>
-    <t>190g</t>
-  </si>
-  <si>
-    <t>35g</t>
+    <t>calibrated</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>weight_by_gram</t>
   </si>
 </sst>
 </file>
@@ -164,7 +92,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -212,12 +140,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,7 +551,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -653,7 +595,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -675,56 +617,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="29.5" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="30" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.81640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="55.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.54296875" style="2" customWidth="1"/>
-    <col min="7" max="8" width="11.453125" style="2"/>
-    <col min="9" max="9" width="15.453125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="24.81640625" style="2" customWidth="1"/>
-    <col min="12" max="13" width="11.453125" style="2"/>
-    <col min="14" max="14" width="52.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="55.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" style="2"/>
+    <col min="9" max="9" width="15.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="2" customWidth="1"/>
+    <col min="12" max="13" width="11.42578125" style="2"/>
+    <col min="14" max="14" width="52.85546875" style="2" customWidth="1"/>
     <col min="15" max="15" width="18" style="2" customWidth="1"/>
-    <col min="16" max="18" width="11.453125" style="2"/>
-    <col min="19" max="19" width="19.81640625" style="2" customWidth="1"/>
-    <col min="20" max="23" width="11.453125" style="2"/>
-    <col min="24" max="24" width="17.453125" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="11.453125" style="2"/>
+    <col min="16" max="18" width="11.42578125" style="2"/>
+    <col min="19" max="19" width="19.85546875" style="2" customWidth="1"/>
+    <col min="20" max="23" width="11.42578125" style="2"/>
+    <col min="24" max="24" width="17.42578125" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>41471</v>
       </c>
       <c r="C2" s="1">
@@ -734,16 +679,18 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>41471</v>
       </c>
       <c r="C3" s="1">
@@ -752,17 +699,19 @@
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E3" s="1">
+        <v>33</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>41471</v>
       </c>
       <c r="C4" s="1">
@@ -772,16 +721,18 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>41471</v>
       </c>
       <c r="C5" s="1">
@@ -791,16 +742,18 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>41473</v>
       </c>
       <c r="C6" s="1">
@@ -809,17 +762,19 @@
       <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E6" s="1">
+        <v>40</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>41473</v>
       </c>
       <c r="C7" s="1">
@@ -828,17 +783,19 @@
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7" s="1">
+        <v>48</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>41473</v>
       </c>
       <c r="C8" s="1">
@@ -847,16 +804,19 @@
       <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" s="1">
+        <v>29</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>41473</v>
       </c>
       <c r="C9" s="1">
@@ -865,15 +825,18 @@
       <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9" s="1">
+        <v>37</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="4">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3">
         <v>41505</v>
       </c>
       <c r="C10" s="1">
@@ -882,15 +845,18 @@
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" s="1">
+        <v>52</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3">
         <v>41564</v>
       </c>
       <c r="C11" s="1">
@@ -899,15 +865,18 @@
       <c r="D11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="1">
+        <v>33</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="4">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3">
         <v>41564</v>
       </c>
       <c r="C12" s="1">
@@ -916,15 +885,18 @@
       <c r="D12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12" s="1">
+        <v>50</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="4">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
         <v>41618</v>
       </c>
       <c r="C13" s="1">
@@ -933,15 +905,18 @@
       <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13" s="1">
+        <v>40</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
         <v>41618</v>
       </c>
       <c r="C14" s="1">
@@ -950,15 +925,18 @@
       <c r="D14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14" s="1">
+        <v>45</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
         <v>41619</v>
       </c>
       <c r="C15" s="1">
@@ -967,15 +945,18 @@
       <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15" s="1">
+        <v>41</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>41590</v>
       </c>
       <c r="C16" s="1">
@@ -984,15 +965,18 @@
       <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16" s="1">
+        <v>117</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>41591</v>
       </c>
       <c r="C17" s="1">
@@ -1001,15 +985,18 @@
       <c r="D17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E17" s="1">
+        <v>126</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>41591</v>
       </c>
       <c r="C18" s="1">
@@ -1018,15 +1005,18 @@
       <c r="D18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E18" s="1">
+        <v>132</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>41591</v>
       </c>
       <c r="C19" s="1">
@@ -1035,15 +1025,18 @@
       <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E19" s="1">
+        <v>113</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>41591</v>
       </c>
       <c r="C20" s="1">
@@ -1052,15 +1045,18 @@
       <c r="D20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E20" s="1">
+        <v>122</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>41591</v>
       </c>
       <c r="C21" s="1">
@@ -1069,15 +1065,18 @@
       <c r="D21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21" s="1">
+        <v>107</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>41591</v>
       </c>
       <c r="C22" s="1">
@@ -1086,15 +1085,18 @@
       <c r="D22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E22" s="1">
+        <v>115</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>41648</v>
       </c>
       <c r="C23" s="1">
@@ -1103,15 +1105,18 @@
       <c r="D23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23" s="1">
+        <v>40</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>41648</v>
       </c>
       <c r="C24" s="1">
@@ -1120,15 +1125,18 @@
       <c r="D24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E24" s="1">
+        <v>36</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>41711</v>
       </c>
       <c r="C25" s="1">
@@ -1137,15 +1145,18 @@
       <c r="D25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E25" s="1">
+        <v>51</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>41711</v>
       </c>
       <c r="C26" s="1">
@@ -1154,15 +1165,18 @@
       <c r="D26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E26" s="1">
+        <v>44</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>41711</v>
       </c>
       <c r="C27" s="1">
@@ -1171,32 +1185,38 @@
       <c r="D27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E27" s="1">
+        <v>146</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>41647</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>41647</v>
       </c>
       <c r="C29" s="1">
@@ -1205,15 +1225,18 @@
       <c r="D29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E29" s="1">
+        <v>44</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>41647</v>
       </c>
       <c r="C30" s="1">
@@ -1222,15 +1245,18 @@
       <c r="D30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E30" s="1">
+        <v>7</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>41647</v>
       </c>
       <c r="C31" s="1">
@@ -1239,32 +1265,38 @@
       <c r="D31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E31" s="1">
+        <v>45</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>41647</v>
       </c>
       <c r="C32" s="1">
         <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>41647</v>
       </c>
       <c r="C33" s="1">
@@ -1273,32 +1305,38 @@
       <c r="D33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E33" s="1">
+        <v>157</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>41647</v>
       </c>
       <c r="C34" s="1">
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>41688</v>
       </c>
       <c r="C35" s="1">
@@ -1307,15 +1345,18 @@
       <c r="D35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E35" s="1">
+        <v>218</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>41688</v>
       </c>
       <c r="C36" s="1">
@@ -1324,15 +1365,18 @@
       <c r="D36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E36" s="1">
+        <v>7</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>41688</v>
       </c>
       <c r="C37" s="1">
@@ -1341,15 +1385,18 @@
       <c r="D37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E37" s="1">
+        <v>52</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>42074</v>
       </c>
       <c r="C38" s="1">
@@ -1358,15 +1405,18 @@
       <c r="D38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E38" s="1">
+        <v>8</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>42102</v>
       </c>
       <c r="C39" s="1">
@@ -1376,31 +1426,37 @@
         <v>3</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="4">
+        <v>11</v>
+      </c>
+      <c r="B40" s="3">
         <v>42130</v>
       </c>
       <c r="C40" s="1">
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>42142</v>
       </c>
       <c r="C41" s="1">
@@ -1409,15 +1465,18 @@
       <c r="D41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E41" s="1">
+        <v>182</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <v>42164</v>
       </c>
       <c r="C42" s="1">
@@ -1426,15 +1485,18 @@
       <c r="D42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E42" s="1">
+        <v>29</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>42193</v>
       </c>
       <c r="C43" s="1">
@@ -1443,15 +1505,18 @@
       <c r="D43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E43" s="1">
+        <v>115</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>42193</v>
       </c>
       <c r="C44" s="1">
@@ -1460,15 +1525,18 @@
       <c r="D44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E44" s="1">
+        <v>190</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>28498</v>
       </c>
       <c r="C45" s="1">
@@ -1477,15 +1545,18 @@
       <c r="D45" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E45" s="1">
+        <v>37</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <v>28498</v>
       </c>
       <c r="C46" s="1">
@@ -1495,14 +1566,17 @@
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="3">
         <v>28498</v>
       </c>
       <c r="C47" s="1">
@@ -1511,15 +1585,18 @@
       <c r="D47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E47" s="1">
+        <v>48</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" s="4">
+        <v>13</v>
+      </c>
+      <c r="B48" s="3">
         <v>28498</v>
       </c>
       <c r="C48" s="1">
@@ -1528,15 +1605,18 @@
       <c r="D48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E48" s="1">
+        <v>52</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="4">
+        <v>14</v>
+      </c>
+      <c r="B49" s="3">
         <v>28498</v>
       </c>
       <c r="C49" s="1">
@@ -1545,9 +1625,18 @@
       <c r="D49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E49" s="1">
+        <v>35</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F51" s="6"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
